--- a/formato_cs.xlsx
+++ b/formato_cs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="18915" windowHeight="8505"/>
+    <workbookView xWindow="360" yWindow="165" windowWidth="18915" windowHeight="8445"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t xml:space="preserve">REFINERIA "GRAL. LAZARO CARDENAS" </t>
   </si>
@@ -36,9 +36,6 @@
     <t>Tipo de contrato</t>
   </si>
   <si>
-    <t>Cambio de Supervisor</t>
-  </si>
-  <si>
     <t>Supervisor Fase Civil</t>
   </si>
   <si>
@@ -63,12 +60,6 @@
     <t>Plazo De Ejecucion</t>
   </si>
   <si>
-    <t>Monto Contratado Multianual</t>
-  </si>
-  <si>
-    <t>Monto Contratado</t>
-  </si>
-  <si>
     <t>Convenio Mondificatorio Plazo Prorroga</t>
   </si>
   <si>
@@ -141,10 +132,16 @@
     <t>Compañia</t>
   </si>
   <si>
-    <t>Residente</t>
-  </si>
-  <si>
     <t>Supervisor Fase Electrica</t>
+  </si>
+  <si>
+    <t>Monto Contratado (Maximo)</t>
+  </si>
+  <si>
+    <t>Monto Contratado (Minimo)</t>
+  </si>
+  <si>
+    <t>Supervisor</t>
   </si>
 </sst>
 </file>
@@ -236,9 +233,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -254,10 +248,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -267,6 +264,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF996633"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -633,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN5"/>
+  <dimension ref="A1:AM5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,14 +649,14 @@
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -689,16 +691,15 @@
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
     </row>
-    <row r="2" spans="1:40" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -733,16 +734,15 @@
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
       <c r="AM2" s="1"/>
-      <c r="AN2" s="1"/>
     </row>
-    <row r="3" spans="1:40" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -777,9 +777,8 @@
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
       <c r="AM3" s="1"/>
-      <c r="AN3" s="1"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -819,128 +818,124 @@
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
       <c r="AM4" s="1"/>
-      <c r="AN4" s="1"/>
     </row>
-    <row r="5" spans="1:40" s="5" customFormat="1" ht="54" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:39" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="9" t="s">
+      <c r="E5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="S5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="T5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="U5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="V5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="W5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="X5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W5" s="3" t="s">
+      <c r="Y5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X5" s="3" t="s">
+      <c r="Z5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Y5" s="3" t="s">
+      <c r="AA5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Z5" s="3" t="s">
+      <c r="AB5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AA5" s="3" t="s">
+      <c r="AC5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AB5" s="3" t="s">
+      <c r="AD5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AC5" s="3" t="s">
+      <c r="AE5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AD5" s="3" t="s">
+      <c r="AF5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AE5" s="3" t="s">
+      <c r="AG5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AF5" s="3" t="s">
+      <c r="AH5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AG5" s="3" t="s">
+      <c r="AI5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AH5" s="3" t="s">
+      <c r="AJ5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AI5" s="3" t="s">
+      <c r="AK5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AJ5" s="3" t="s">
+      <c r="AL5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AK5" s="3" t="s">
+      <c r="AM5" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="AL5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN5" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
